--- a/Assets/StreamingAssets/Songs/宵々古今/Chart.xlsx
+++ b/Assets/StreamingAssets/Songs/宵々古今/Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Xenody-master\Assets\StreamingAssets\Songs\宵々古今\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EC2240-BAA7-41C7-84F6-4153D0054BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F58CAE-2FA1-49A0-A5CB-4828D6FF1636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="3" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="speed" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="star" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">star!$O$30:$O$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">star!$O$24:$O$25</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="39">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,11 +157,26 @@
     <t>#ffe4e1</t>
   </si>
   <si>
-    <t>UpperCir</t>
+    <t>Rad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LowerCir</t>
+    <t>Angle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CWC</t>
+  </si>
+  <si>
+    <t>CWC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCWC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,7 +687,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
@@ -1691,8 +1706,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D522"/>
   <sheetViews>
-    <sheetView topLeftCell="A468" workbookViewId="0">
-      <selection activeCell="G511" sqref="G511"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2906,7 +2921,7 @@
         <v>23.782</v>
       </c>
       <c r="B87">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="C87">
         <v>0.8</v>
@@ -2920,7 +2935,7 @@
         <v>23.782</v>
       </c>
       <c r="B88">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C88">
         <v>0.8</v>
@@ -2934,7 +2949,7 @@
         <v>23.981999999999999</v>
       </c>
       <c r="B89">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="C89">
         <v>0.8</v>
@@ -2948,7 +2963,7 @@
         <v>23.981999999999999</v>
       </c>
       <c r="B90">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C90">
         <v>0.8</v>
@@ -2962,7 +2977,7 @@
         <v>24.181999999999999</v>
       </c>
       <c r="B91">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="C91">
         <v>0.8</v>
@@ -2976,7 +2991,7 @@
         <v>24.181999999999999</v>
       </c>
       <c r="B92">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C92">
         <v>0.8</v>
@@ -3774,7 +3789,7 @@
         <v>40.981999999999999</v>
       </c>
       <c r="B149">
-        <v>-1.2</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="C149">
         <v>0.8</v>
@@ -3788,7 +3803,7 @@
         <v>44.182000000000002</v>
       </c>
       <c r="B150">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C150">
         <v>0.8</v>
@@ -5412,7 +5427,7 @@
         <v>76.381999999999906</v>
       </c>
       <c r="B266">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C266">
         <v>0.8</v>
@@ -5426,7 +5441,7 @@
         <v>76.781999999999897</v>
       </c>
       <c r="B267">
-        <v>-1.2</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="C267">
         <v>0.8</v>
@@ -6588,7 +6603,7 @@
         <v>108.182</v>
       </c>
       <c r="B350">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C350">
         <v>0.8</v>
@@ -6602,7 +6617,7 @@
         <v>111.38200000000001</v>
       </c>
       <c r="B351">
-        <v>-1.2</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="C351">
         <v>0.8</v>
@@ -8226,7 +8241,7 @@
         <v>145.1819999999999</v>
       </c>
       <c r="B467">
-        <v>-1.2</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="C467">
         <v>0.8</v>
@@ -8240,7 +8255,7 @@
         <v>145.58199999999988</v>
       </c>
       <c r="B468">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C468">
         <v>0.8</v>
@@ -8254,7 +8269,7 @@
         <v>145.982</v>
       </c>
       <c r="B469">
-        <v>-1.2</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="C469">
         <v>0.8</v>
@@ -8268,7 +8283,7 @@
         <v>146.38200000000001</v>
       </c>
       <c r="B470">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C470">
         <v>0.8</v>
@@ -8282,7 +8297,7 @@
         <v>146.78200000000001</v>
       </c>
       <c r="B471">
-        <v>-1.2</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="C471">
         <v>0.8</v>
@@ -8296,7 +8311,7 @@
         <v>147.18199999999999</v>
       </c>
       <c r="B472">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C472">
         <v>0.8</v>
@@ -8310,7 +8325,7 @@
         <v>147.58199999999999</v>
       </c>
       <c r="B473">
-        <v>-1.2</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="C473">
         <v>0.8</v>
@@ -8324,7 +8339,7 @@
         <v>147.58199999999999</v>
       </c>
       <c r="B474">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C474">
         <v>0.8</v>
@@ -14517,15 +14532,15 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192095B2-1BEA-4365-B4DE-88EEBB6E4423}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:J192"/>
+  <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="W197" sqref="W197"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -14556,8 +14571,17 @@
       <c r="J1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -14589,7 +14613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -14621,7 +14645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -14653,7 +14677,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -14685,7 +14709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -14717,7 +14741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -14749,7 +14773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -14781,7 +14805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -14813,7 +14837,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -14845,7 +14869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -14877,7 +14901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -14909,7 +14933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -14941,7 +14965,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -14973,7 +14997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -15005,7 +15029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -15037,7 +15061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -15069,7 +15093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -15083,775 +15107,814 @@
         <v>39.582000000000001</v>
       </c>
       <c r="E18">
-        <v>39.781999999999996</v>
+        <v>39.981999999999999</v>
       </c>
       <c r="F18">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>39.981999999999999</v>
+      </c>
+      <c r="D19">
+        <v>40.381999999999998</v>
+      </c>
+      <c r="E19">
+        <v>40.781999999999996</v>
+      </c>
+      <c r="F19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>40.782000000000004</v>
+      </c>
+      <c r="D20">
+        <v>41.182000000000002</v>
+      </c>
+      <c r="E20">
+        <v>41.582000000000001</v>
+      </c>
+      <c r="F20">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>41.582000000000001</v>
+      </c>
+      <c r="D21">
+        <v>41.981999999999999</v>
+      </c>
+      <c r="E21">
+        <v>42.381999999999998</v>
+      </c>
+      <c r="F21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>42.382000000000005</v>
+      </c>
+      <c r="D22">
+        <v>42.782000000000004</v>
+      </c>
+      <c r="E22">
+        <v>43.182000000000002</v>
+      </c>
+      <c r="F22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>43.182000000000002</v>
+      </c>
+      <c r="D23">
+        <v>43.582000000000001</v>
+      </c>
+      <c r="E23">
+        <v>43.981999999999999</v>
+      </c>
+      <c r="F23">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L23">
+        <v>0.5</v>
+      </c>
+      <c r="M23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>43.982000000000006</v>
+      </c>
+      <c r="D24">
+        <v>44.382000000000005</v>
+      </c>
+      <c r="E24">
+        <v>44.782000000000004</v>
+      </c>
+      <c r="F24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L24">
+        <v>0.5</v>
+      </c>
+      <c r="M24">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>44.782000000000004</v>
+      </c>
+      <c r="D25">
+        <v>45.182000000000002</v>
+      </c>
+      <c r="E25">
+        <v>45.582000000000001</v>
+      </c>
+      <c r="F25">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>45.582000000000008</v>
+      </c>
+      <c r="D26">
+        <v>45.982000000000006</v>
+      </c>
+      <c r="E26">
+        <v>46.382000000000005</v>
+      </c>
+      <c r="F26">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>46.382000000000005</v>
+      </c>
+      <c r="D27">
+        <v>46.782000000000004</v>
+      </c>
+      <c r="E27">
+        <v>47.182000000000002</v>
+      </c>
+      <c r="F27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L27">
+        <v>0.5</v>
+      </c>
+      <c r="M27">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>47.182000000000009</v>
+      </c>
+      <c r="D28">
+        <v>47.582000000000008</v>
+      </c>
+      <c r="E28">
+        <v>47.982000000000006</v>
+      </c>
+      <c r="F28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L28">
+        <v>0.5</v>
+      </c>
+      <c r="M28">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>47.982000000000006</v>
+      </c>
+      <c r="D29">
+        <v>48.382000000000005</v>
+      </c>
+      <c r="E29">
+        <v>48.782000000000004</v>
+      </c>
+      <c r="F29">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L29">
+        <v>0.5</v>
+      </c>
+      <c r="M29">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>48.781999999999996</v>
+      </c>
+      <c r="D30">
+        <v>49.182000000000002</v>
+      </c>
+      <c r="E30">
+        <v>49.582000000000001</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0.8</v>
+      </c>
+      <c r="I30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>49.182000000000002</v>
+      </c>
+      <c r="D31">
+        <v>49.582000000000001</v>
+      </c>
+      <c r="E31">
+        <v>49.981999999999999</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>-0.8</v>
+      </c>
+      <c r="I31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>49.582000000000001</v>
+      </c>
+      <c r="D32">
+        <v>49.981999999999999</v>
+      </c>
+      <c r="E32">
+        <v>50.381999999999998</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1.4</v>
+      </c>
+      <c r="J32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>49.981999999999999</v>
+      </c>
+      <c r="D33">
+        <v>50.381999999999998</v>
+      </c>
+      <c r="E33">
+        <v>50.781999999999996</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>37</v>
+      </c>
+      <c r="K33">
+        <v>0.8</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>49.981999999999999</v>
+      </c>
+      <c r="D34">
+        <v>50.781999999999996</v>
+      </c>
+      <c r="E34">
+        <v>50.881999999999998</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>-0.8</v>
+      </c>
+      <c r="I34">
+        <v>0.7</v>
+      </c>
+      <c r="J34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>32</v>
+      </c>
+      <c r="C35">
+        <v>49.981999999999999</v>
+      </c>
+      <c r="D35">
+        <v>50.881999999999998</v>
+      </c>
+      <c r="E35">
+        <v>50.981999999999999</v>
+      </c>
+      <c r="F35">
+        <v>-0.8</v>
+      </c>
+      <c r="G35">
+        <v>0.7</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1.4</v>
+      </c>
+      <c r="J35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>32</v>
+      </c>
+      <c r="C36">
+        <v>49.981999999999999</v>
+      </c>
+      <c r="D36">
+        <v>50.981999999999999</v>
+      </c>
+      <c r="E36">
+        <v>51.082000000000001</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1.4</v>
+      </c>
+      <c r="H36">
+        <v>0.8</v>
+      </c>
+      <c r="I36">
+        <v>0.7</v>
+      </c>
+      <c r="J36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>32</v>
+      </c>
+      <c r="C37">
+        <v>49.981999999999999</v>
+      </c>
+      <c r="D37">
+        <v>51.082000000000001</v>
+      </c>
+      <c r="E37">
+        <v>51.182000000000002</v>
+      </c>
+      <c r="F37">
+        <v>0.8</v>
+      </c>
+      <c r="G37">
+        <v>0.7</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>33</v>
+      </c>
+      <c r="C38">
+        <v>51.381999999999998</v>
+      </c>
+      <c r="D38">
+        <v>51.781999999999996</v>
+      </c>
+      <c r="E38">
+        <v>51.981999999999999</v>
+      </c>
+      <c r="F38">
+        <v>0.5</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>1.2</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>34</v>
+      </c>
+      <c r="C39">
+        <v>51.982000000000006</v>
+      </c>
+      <c r="D39">
+        <v>52.382000000000005</v>
+      </c>
+      <c r="E39">
+        <v>52.582000000000001</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>-0.7</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>35</v>
+      </c>
+      <c r="C40">
+        <v>52.182000000000002</v>
+      </c>
+      <c r="D40">
+        <v>52.582000000000001</v>
+      </c>
+      <c r="E40">
+        <v>52.781999999999996</v>
+      </c>
+      <c r="F40">
+        <v>1.6</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0.9</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>36</v>
+      </c>
+      <c r="C41">
+        <v>52.981999999999999</v>
+      </c>
+      <c r="D41">
+        <v>53.381999999999998</v>
+      </c>
+      <c r="E41">
+        <v>53.582000000000001</v>
+      </c>
+      <c r="F41">
+        <v>-0.5</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>-1.2</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>39.182000000000002</v>
-      </c>
-      <c r="D19">
-        <v>39.781999999999996</v>
-      </c>
-      <c r="E19">
-        <v>39.981999999999999</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1.2</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>18</v>
-      </c>
-      <c r="C20">
-        <v>39.981999999999999</v>
-      </c>
-      <c r="D20">
-        <v>40.381999999999998</v>
-      </c>
-      <c r="E20">
-        <v>40.582000000000001</v>
-      </c>
-      <c r="F20">
-        <v>1.2</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>18</v>
-      </c>
-      <c r="C21">
-        <v>39.981999999999999</v>
-      </c>
-      <c r="D21">
-        <v>40.582000000000001</v>
-      </c>
-      <c r="E21">
-        <v>40.781999999999996</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>-1.2</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>19</v>
-      </c>
-      <c r="C22">
-        <v>40.782000000000004</v>
-      </c>
-      <c r="D22">
-        <v>41.182000000000002</v>
-      </c>
-      <c r="E22">
-        <v>41.381999999999998</v>
-      </c>
-      <c r="F22">
-        <v>-1.2</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>19</v>
-      </c>
-      <c r="C23">
-        <v>40.782000000000004</v>
-      </c>
-      <c r="D23">
-        <v>41.381999999999998</v>
-      </c>
-      <c r="E23">
-        <v>41.582000000000001</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1.2</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>20</v>
-      </c>
-      <c r="C24">
-        <v>41.582000000000001</v>
-      </c>
-      <c r="D24">
-        <v>41.981999999999999</v>
-      </c>
-      <c r="E24">
-        <v>42.182000000000002</v>
-      </c>
-      <c r="F24">
-        <v>1.2</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>20</v>
-      </c>
-      <c r="C25">
-        <v>41.582000000000001</v>
-      </c>
-      <c r="D25">
-        <v>42.182000000000002</v>
-      </c>
-      <c r="E25">
-        <v>42.381999999999998</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>-1.2</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>21</v>
-      </c>
-      <c r="C26">
-        <v>42.382000000000005</v>
-      </c>
-      <c r="D26">
-        <v>42.782000000000004</v>
-      </c>
-      <c r="E26">
-        <v>42.981999999999999</v>
-      </c>
-      <c r="F26">
-        <v>1.2</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>21</v>
-      </c>
-      <c r="C27">
-        <v>42.382000000000005</v>
-      </c>
-      <c r="D27">
-        <v>42.981999999999999</v>
-      </c>
-      <c r="E27">
-        <v>43.182000000000002</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>-1.2</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>22</v>
-      </c>
-      <c r="C28">
-        <v>43.182000000000002</v>
-      </c>
-      <c r="D28">
-        <v>43.582000000000001</v>
-      </c>
-      <c r="E28">
-        <v>43.782000000000004</v>
-      </c>
-      <c r="F28">
-        <v>-1.2</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>22</v>
-      </c>
-      <c r="C29">
-        <v>43.182000000000002</v>
-      </c>
-      <c r="D29">
-        <v>43.782000000000004</v>
-      </c>
-      <c r="E29">
-        <v>43.981999999999999</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1.2</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30">
-        <v>23</v>
-      </c>
-      <c r="C30">
-        <v>43.982000000000006</v>
-      </c>
-      <c r="D30">
-        <v>44.382000000000005</v>
-      </c>
-      <c r="E30">
-        <v>44.582000000000001</v>
-      </c>
-      <c r="F30">
-        <v>1.2</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>23</v>
-      </c>
-      <c r="C31">
-        <v>43.982000000000006</v>
-      </c>
-      <c r="D31">
-        <v>44.582000000000001</v>
-      </c>
-      <c r="E31">
-        <v>44.782000000000004</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>-1.2</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32">
-        <v>24</v>
-      </c>
-      <c r="C32">
-        <v>44.782000000000004</v>
-      </c>
-      <c r="D32">
-        <v>45.182000000000002</v>
-      </c>
-      <c r="E32">
-        <v>45.382000000000005</v>
-      </c>
-      <c r="F32">
-        <v>-1.2</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>24</v>
-      </c>
-      <c r="C33">
-        <v>44.782000000000004</v>
-      </c>
-      <c r="D33">
-        <v>45.382000000000005</v>
-      </c>
-      <c r="E33">
-        <v>45.582000000000001</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1.2</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34">
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
         <v>25</v>
       </c>
-      <c r="C34">
-        <v>45.582000000000008</v>
-      </c>
-      <c r="D34">
-        <v>45.982000000000006</v>
-      </c>
-      <c r="E34">
-        <v>46.182000000000002</v>
-      </c>
-      <c r="F34">
-        <v>-1.2</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35">
-        <v>25</v>
-      </c>
-      <c r="C35">
-        <v>45.582000000000008</v>
-      </c>
-      <c r="D35">
-        <v>46.182000000000002</v>
-      </c>
-      <c r="E35">
-        <v>46.382000000000005</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>1.2</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36">
-        <v>26</v>
-      </c>
-      <c r="C36">
-        <v>46.382000000000005</v>
-      </c>
-      <c r="D36">
-        <v>46.782000000000004</v>
-      </c>
-      <c r="E36">
-        <v>46.982000000000006</v>
-      </c>
-      <c r="F36">
-        <v>1.2</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>26</v>
-      </c>
-      <c r="C37">
-        <v>46.382000000000005</v>
-      </c>
-      <c r="D37">
-        <v>46.982000000000006</v>
-      </c>
-      <c r="E37">
-        <v>47.182000000000002</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>-1.2</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38">
-        <v>27</v>
-      </c>
-      <c r="C38">
-        <v>47.182000000000009</v>
-      </c>
-      <c r="D38">
-        <v>47.582000000000008</v>
-      </c>
-      <c r="E38">
-        <v>47.782000000000004</v>
-      </c>
-      <c r="F38">
-        <v>1.2</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39">
-        <v>27</v>
-      </c>
-      <c r="C39">
-        <v>47.182000000000009</v>
-      </c>
-      <c r="D39">
-        <v>47.782000000000004</v>
-      </c>
-      <c r="E39">
-        <v>47.982000000000006</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>-1.2</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40">
-        <v>28</v>
-      </c>
-      <c r="C40">
-        <v>47.982000000000006</v>
-      </c>
-      <c r="D40">
-        <v>48.382000000000005</v>
-      </c>
-      <c r="E40">
-        <v>48.582000000000008</v>
-      </c>
-      <c r="F40">
-        <v>-1.2</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>28</v>
-      </c>
-      <c r="C41">
-        <v>47.982000000000006</v>
-      </c>
-      <c r="D41">
-        <v>48.582000000000008</v>
-      </c>
-      <c r="E41">
-        <v>48.782000000000004</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>1.2</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
       <c r="B42">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C42">
-        <v>48.781999999999996</v>
+        <v>53.582000000000008</v>
       </c>
       <c r="D42">
-        <v>49.182000000000002</v>
+        <v>53.982000000000006</v>
       </c>
       <c r="E42">
-        <v>49.582000000000001</v>
+        <v>54.182000000000002</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -15860,234 +15923,234 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I42">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C43">
-        <v>49.182000000000002</v>
+        <v>53.782000000000004</v>
       </c>
       <c r="D43">
-        <v>49.582000000000001</v>
+        <v>54.182000000000002</v>
       </c>
       <c r="E43">
-        <v>49.981999999999999</v>
+        <v>54.381999999999998</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>-1.6</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="I43">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C44">
-        <v>49.582000000000001</v>
+        <v>54.781999999999996</v>
       </c>
       <c r="D44">
-        <v>49.981999999999999</v>
+        <v>55.182000000000002</v>
       </c>
       <c r="E44">
-        <v>50.381999999999998</v>
+        <v>55.382000000000097</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I44">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
       <c r="B45">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C45">
-        <v>49.981999999999999</v>
+        <v>55.182000000000002</v>
       </c>
       <c r="D45">
-        <v>50.381999999999998</v>
+        <v>55.5820000000001</v>
       </c>
       <c r="E45">
-        <v>50.481999999999999</v>
+        <v>55.782000000000103</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>-0.8</v>
+        <v>-0.3</v>
       </c>
       <c r="I45">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
       <c r="B46">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C46">
-        <v>49.981999999999999</v>
+        <v>55.5820000000001</v>
       </c>
       <c r="D46">
-        <v>50.481999999999999</v>
+        <v>55.982000000000099</v>
       </c>
       <c r="E46">
-        <v>50.582000000000001</v>
+        <v>56.182000000000102</v>
       </c>
       <c r="F46">
-        <v>-0.8</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I46">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C47">
-        <v>49.981999999999999</v>
+        <v>55.982000000000099</v>
       </c>
       <c r="D47">
-        <v>50.582000000000001</v>
+        <v>56.382000000000097</v>
       </c>
       <c r="E47">
-        <v>50.682000000000002</v>
+        <v>56.5820000000001</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G47">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>0.8</v>
+        <v>-0.3</v>
       </c>
       <c r="I47">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C48">
-        <v>49.981999999999999</v>
+        <v>56.782000000000103</v>
       </c>
       <c r="D48">
-        <v>50.682000000000002</v>
+        <v>57.182000000000102</v>
       </c>
       <c r="E48">
-        <v>50.781999999999996</v>
+        <v>57.382000000000097</v>
       </c>
       <c r="F48">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B49">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C49">
-        <v>49.981999999999999</v>
+        <v>56.982000000000099</v>
       </c>
       <c r="D49">
-        <v>50.781999999999996</v>
+        <v>57.382000000000097</v>
       </c>
       <c r="E49">
-        <v>50.881999999999998</v>
+        <v>57.5820000000001</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>-0.8</v>
+        <v>-1.7</v>
       </c>
       <c r="I49">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
         <v>25</v>
@@ -16098,28 +16161,28 @@
         <v>1</v>
       </c>
       <c r="B50">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C50">
-        <v>49.981999999999999</v>
+        <v>57.881999999999998</v>
       </c>
       <c r="D50">
-        <v>50.881999999999998</v>
+        <v>58.182000000000002</v>
       </c>
       <c r="E50">
-        <v>50.981999999999999</v>
+        <v>58.381999999999998</v>
       </c>
       <c r="F50">
-        <v>-0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="G50">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
       <c r="I50">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>25</v>
@@ -16130,28 +16193,28 @@
         <v>1</v>
       </c>
       <c r="B51">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C51">
-        <v>49.981999999999999</v>
+        <v>58.381999999999998</v>
       </c>
       <c r="D51">
-        <v>50.981999999999999</v>
+        <v>58.781999999999996</v>
       </c>
       <c r="E51">
-        <v>51.082000000000001</v>
+        <v>58.981999999999999</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I51">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>25</v>
@@ -16162,28 +16225,28 @@
         <v>1</v>
       </c>
       <c r="B52">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C52">
-        <v>49.981999999999999</v>
+        <v>58.582000000000001</v>
       </c>
       <c r="D52">
-        <v>51.082000000000001</v>
+        <v>58.981999999999999</v>
       </c>
       <c r="E52">
-        <v>51.182000000000002</v>
+        <v>59.182000000000002</v>
       </c>
       <c r="F52">
-        <v>0.8</v>
+        <v>-1.6</v>
       </c>
       <c r="G52">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
         <v>25</v>
@@ -16194,16 +16257,16 @@
         <v>1</v>
       </c>
       <c r="B53">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C53">
-        <v>51.381999999999998</v>
+        <v>59.381999999999998</v>
       </c>
       <c r="D53">
-        <v>51.781999999999996</v>
+        <v>59.781999999999996</v>
       </c>
       <c r="E53">
-        <v>51.981999999999999</v>
+        <v>59.981999999999999</v>
       </c>
       <c r="F53">
         <v>0.5</v>
@@ -16226,16 +16289,16 @@
         <v>1</v>
       </c>
       <c r="B54">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C54">
-        <v>51.982000000000006</v>
+        <v>59.982000000000006</v>
       </c>
       <c r="D54">
-        <v>52.382000000000005</v>
+        <v>60.382000000000005</v>
       </c>
       <c r="E54">
-        <v>52.582000000000001</v>
+        <v>60.582000000000001</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -16258,16 +16321,16 @@
         <v>1</v>
       </c>
       <c r="B55">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C55">
-        <v>52.182000000000002</v>
+        <v>60.182000000000002</v>
       </c>
       <c r="D55">
-        <v>52.582000000000001</v>
+        <v>60.582000000000001</v>
       </c>
       <c r="E55">
-        <v>52.781999999999996</v>
+        <v>60.781999999999996</v>
       </c>
       <c r="F55">
         <v>1.6</v>
@@ -16290,25 +16353,25 @@
         <v>1</v>
       </c>
       <c r="B56">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C56">
-        <v>52.981999999999999</v>
+        <v>62.781999999999996</v>
       </c>
       <c r="D56">
-        <v>53.381999999999998</v>
+        <v>63.182000000000002</v>
       </c>
       <c r="E56">
-        <v>53.582000000000001</v>
+        <v>63.381999999999998</v>
       </c>
       <c r="F56">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>-1.2</v>
+        <v>0.6</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -16322,25 +16385,25 @@
         <v>1</v>
       </c>
       <c r="B57">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C57">
-        <v>53.582000000000008</v>
+        <v>63.182000000000002</v>
       </c>
       <c r="D57">
-        <v>53.982000000000006</v>
+        <v>63.582000000000001</v>
       </c>
       <c r="E57">
-        <v>54.182000000000002</v>
+        <v>63.781999999999996</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -16354,25 +16417,25 @@
         <v>1</v>
       </c>
       <c r="B58">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C58">
-        <v>53.782000000000004</v>
+        <v>63.582000000000001</v>
       </c>
       <c r="D58">
-        <v>54.182000000000002</v>
+        <v>63.981999999999999</v>
       </c>
       <c r="E58">
-        <v>54.381999999999998</v>
+        <v>64.182000000000002</v>
       </c>
       <c r="F58">
-        <v>-1.6</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -16383,31 +16446,31 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C59">
-        <v>54.781999999999996</v>
+        <v>63.981999999999999</v>
       </c>
       <c r="D59">
-        <v>55.182000000000002</v>
+        <v>64.382000000000005</v>
       </c>
       <c r="E59">
-        <v>55.382000000000097</v>
+        <v>64.581999999999994</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
         <v>25</v>
@@ -16418,25 +16481,25 @@
         <v>1</v>
       </c>
       <c r="B60">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C60">
-        <v>55.182000000000002</v>
+        <v>65.782000000000096</v>
       </c>
       <c r="D60">
-        <v>55.5820000000001</v>
+        <v>66.382000000000104</v>
       </c>
       <c r="E60">
-        <v>55.782000000000103</v>
+        <v>66.582000000000093</v>
       </c>
       <c r="F60">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>-0.3</v>
+        <v>0.8</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -16450,25 +16513,25 @@
         <v>1</v>
       </c>
       <c r="B61">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C61">
-        <v>55.5820000000001</v>
+        <v>66.182000000000002</v>
       </c>
       <c r="D61">
-        <v>55.982000000000099</v>
+        <v>66.782000000000096</v>
       </c>
       <c r="E61">
-        <v>56.182000000000102</v>
+        <v>66.982000000000099</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0.3</v>
+        <v>-0.8</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -16479,31 +16542,31 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C62">
-        <v>55.982000000000099</v>
+        <v>67.782000000000096</v>
       </c>
       <c r="D62">
-        <v>56.382000000000097</v>
+        <v>67.982000000000099</v>
       </c>
       <c r="E62">
-        <v>56.5820000000001</v>
+        <v>68.182000000000102</v>
       </c>
       <c r="F62">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>-0.3</v>
+        <v>-0.8</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>25</v>
@@ -16511,31 +16574,31 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C63">
-        <v>56.782000000000103</v>
+        <v>68.182000000000102</v>
       </c>
       <c r="D63">
-        <v>57.182000000000102</v>
+        <v>68.382000000000104</v>
       </c>
       <c r="E63">
-        <v>57.382000000000097</v>
+        <v>68.582000000000093</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
         <v>25</v>
@@ -16543,60 +16606,60 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B64">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C64">
-        <v>56.982000000000099</v>
+        <v>68.582000000000093</v>
       </c>
       <c r="D64">
-        <v>57.382000000000097</v>
+        <v>68.782000000000096</v>
       </c>
       <c r="E64">
-        <v>57.5820000000001</v>
+        <v>68.982000000000099</v>
       </c>
       <c r="F64">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>-1.7</v>
+        <v>1.2</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1</v>
       </c>
       <c r="B65">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C65">
-        <v>57.881999999999998</v>
+        <v>68.982000000000099</v>
       </c>
       <c r="D65">
-        <v>58.182000000000002</v>
+        <v>69.182000000000102</v>
       </c>
       <c r="E65">
-        <v>58.381999999999998</v>
+        <v>69.382000000000104</v>
       </c>
       <c r="F65">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>-1.2</v>
+        <v>-0.2</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -16605,30 +16668,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1</v>
       </c>
       <c r="B66">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C66">
-        <v>58.381999999999998</v>
+        <v>69.382000000000104</v>
       </c>
       <c r="D66">
-        <v>58.781999999999996</v>
+        <v>69.582000000000093</v>
       </c>
       <c r="E66">
-        <v>58.981999999999999</v>
+        <v>69.782000000000096</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>0.7</v>
+        <v>-1.2</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -16637,286 +16700,292 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B67">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C67">
-        <v>58.582000000000001</v>
+        <v>70.382000000000005</v>
       </c>
       <c r="D67">
-        <v>58.981999999999999</v>
+        <v>70.382000000000005</v>
       </c>
       <c r="E67">
-        <v>59.182000000000002</v>
+        <v>70.581999999999994</v>
       </c>
       <c r="F67">
-        <v>-1.6</v>
+        <v>-1</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>-0.9</v>
+        <v>-1.5</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B68">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C68">
-        <v>59.381999999999998</v>
+        <v>70.781999999999996</v>
       </c>
       <c r="D68">
-        <v>59.781999999999996</v>
+        <v>70.781999999999996</v>
       </c>
       <c r="E68">
-        <v>59.981999999999999</v>
+        <v>70.981999999999999</v>
       </c>
       <c r="F68">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B69">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C69">
-        <v>59.982000000000006</v>
+        <v>71.182000000000002</v>
       </c>
       <c r="D69">
-        <v>60.382000000000005</v>
+        <v>71.182000000000002</v>
       </c>
       <c r="E69">
-        <v>60.582000000000001</v>
+        <v>71.382000000000005</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B70">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C70">
-        <v>60.182000000000002</v>
+        <v>71.981999999999999</v>
       </c>
       <c r="D70">
-        <v>60.582000000000001</v>
+        <v>71.981999999999999</v>
       </c>
       <c r="E70">
-        <v>60.781999999999996</v>
+        <v>72.182000000000002</v>
       </c>
       <c r="F70">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B71">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C71">
-        <v>62.781999999999996</v>
+        <v>72.382000000000005</v>
       </c>
       <c r="D71">
-        <v>63.182000000000002</v>
+        <v>72.382000000000005</v>
       </c>
       <c r="E71">
-        <v>63.381999999999998</v>
+        <v>72.582000000000008</v>
       </c>
       <c r="F71">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B72">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C72">
-        <v>63.182000000000002</v>
+        <v>72.781999999999996</v>
       </c>
       <c r="D72">
-        <v>63.582000000000001</v>
+        <v>72.781999999999996</v>
       </c>
       <c r="E72">
-        <v>63.781999999999996</v>
+        <v>72.981999999999999</v>
       </c>
       <c r="F72">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>-0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1</v>
       </c>
       <c r="B73">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C73">
-        <v>63.582000000000001</v>
+        <v>75.981999999999999</v>
       </c>
       <c r="D73">
-        <v>63.981999999999999</v>
+        <v>76.381999999999906</v>
       </c>
       <c r="E73">
-        <v>64.182000000000002</v>
+        <v>76.581999999999994</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
       <c r="J73" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="K73">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L73">
+        <v>0.25</v>
+      </c>
+      <c r="M73">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1</v>
       </c>
       <c r="B74">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C74">
-        <v>63.981999999999999</v>
+        <v>76.381999999999906</v>
       </c>
       <c r="D74">
-        <v>64.382000000000005</v>
+        <v>76.781999999999897</v>
       </c>
       <c r="E74">
-        <v>64.581999999999994</v>
+        <v>76.981999999999999</v>
       </c>
       <c r="F74">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="J74" t="s">
+        <v>36</v>
+      </c>
+      <c r="K74">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L74">
+        <v>0.25</v>
+      </c>
+      <c r="M74">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>70</v>
+      </c>
+      <c r="C75">
+        <v>77.182000000000002</v>
+      </c>
+      <c r="D75">
+        <v>77.581999999999994</v>
+      </c>
+      <c r="E75">
+        <v>77.981999999999999</v>
+      </c>
+      <c r="F75">
         <v>-1</v>
       </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>1</v>
-      </c>
-      <c r="B75">
-        <v>55</v>
-      </c>
-      <c r="C75">
-        <v>65.782000000000096</v>
-      </c>
-      <c r="D75">
-        <v>66.382000000000104</v>
-      </c>
-      <c r="E75">
-        <v>66.582000000000093</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -16925,30 +16994,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1</v>
       </c>
       <c r="B76">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C76">
-        <v>66.182000000000002</v>
+        <v>77.182000000000002</v>
       </c>
       <c r="D76">
-        <v>66.782000000000096</v>
+        <v>77.981999999999999</v>
       </c>
       <c r="E76">
-        <v>66.982000000000099</v>
+        <v>78.382000000000005</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>-0.8</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -16957,94 +17026,94 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1</v>
       </c>
       <c r="B77">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C77">
-        <v>67.782000000000096</v>
+        <v>77.182000000000002</v>
       </c>
       <c r="D77">
-        <v>67.982000000000099</v>
+        <v>78.382000000000005</v>
       </c>
       <c r="E77">
-        <v>68.182000000000102</v>
+        <v>78.781999999999996</v>
       </c>
       <c r="F77">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1</v>
       </c>
       <c r="B78">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C78">
-        <v>68.182000000000102</v>
+        <v>77.182000000000002</v>
       </c>
       <c r="D78">
-        <v>68.382000000000104</v>
+        <v>78.781999999999996</v>
       </c>
       <c r="E78">
-        <v>68.582000000000093</v>
+        <v>79.081999999999994</v>
       </c>
       <c r="F78">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1</v>
       </c>
       <c r="B79">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C79">
-        <v>68.582000000000093</v>
+        <v>77.182000000000002</v>
       </c>
       <c r="D79">
-        <v>68.782000000000096</v>
+        <v>79.081999999999994</v>
       </c>
       <c r="E79">
-        <v>68.982000000000099</v>
+        <v>79.382000000000005</v>
       </c>
       <c r="F79">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -17053,30 +17122,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1</v>
       </c>
       <c r="B80">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C80">
-        <v>68.982000000000099</v>
+        <v>77.182000000000002</v>
       </c>
       <c r="D80">
-        <v>69.182000000000102</v>
+        <v>77.581999999999994</v>
       </c>
       <c r="E80">
-        <v>69.382000000000104</v>
+        <v>77.981999999999999</v>
       </c>
       <c r="F80">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -17085,30 +17154,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1</v>
       </c>
       <c r="B81">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C81">
-        <v>69.382000000000104</v>
+        <v>77.182000000000002</v>
       </c>
       <c r="D81">
-        <v>69.582000000000093</v>
+        <v>77.981999999999999</v>
       </c>
       <c r="E81">
-        <v>69.782000000000096</v>
+        <v>78.382000000000005</v>
       </c>
       <c r="F81">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -17117,21 +17186,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B82">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C82">
-        <v>70.382000000000005</v>
+        <v>77.182000000000002</v>
       </c>
       <c r="D82">
-        <v>70.382000000000005</v>
+        <v>78.382000000000005</v>
       </c>
       <c r="E82">
-        <v>70.581999999999994</v>
+        <v>78.781999999999996</v>
       </c>
       <c r="F82">
         <v>-1</v>
@@ -17140,7 +17209,7 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -17149,30 +17218,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B83">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C83">
-        <v>70.781999999999996</v>
+        <v>77.182000000000002</v>
       </c>
       <c r="D83">
-        <v>70.781999999999996</v>
+        <v>78.781999999999996</v>
       </c>
       <c r="E83">
-        <v>70.981999999999999</v>
+        <v>79.081999999999994</v>
       </c>
       <c r="F83">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -17181,94 +17250,94 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B84">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C84">
-        <v>71.182000000000002</v>
+        <v>77.182000000000002</v>
       </c>
       <c r="D84">
-        <v>71.182000000000002</v>
+        <v>79.081999999999994</v>
       </c>
       <c r="E84">
-        <v>71.382000000000005</v>
+        <v>79.382000000000005</v>
       </c>
       <c r="F84">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B85">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C85">
-        <v>71.981999999999999</v>
+        <v>87.049000000000007</v>
       </c>
       <c r="D85">
-        <v>71.981999999999999</v>
+        <v>87.182000000000002</v>
       </c>
       <c r="E85">
-        <v>72.182000000000002</v>
+        <v>87.448999999999998</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2</v>
       </c>
       <c r="B86">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C86">
-        <v>72.382000000000005</v>
+        <v>87.448999999999998</v>
       </c>
       <c r="D86">
-        <v>72.382000000000005</v>
+        <v>87.581999999999994</v>
       </c>
       <c r="E86">
-        <v>72.582000000000008</v>
+        <v>87.849000000000004</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -17277,120 +17346,120 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B87">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C87">
-        <v>72.781999999999996</v>
+        <v>87.849000000000004</v>
       </c>
       <c r="D87">
-        <v>72.781999999999996</v>
+        <v>87.981999999999999</v>
       </c>
       <c r="E87">
-        <v>72.981999999999999</v>
+        <v>88.248999999999995</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B88">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C88">
-        <v>75.981999999999999</v>
+        <v>88.248999999999995</v>
       </c>
       <c r="D88">
-        <v>76.381999999999906</v>
+        <v>88.382000000000005</v>
       </c>
       <c r="E88">
-        <v>76.581999999999994</v>
+        <v>88.649000000000001</v>
       </c>
       <c r="F88">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B89">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C89">
-        <v>76.381999999999906</v>
+        <v>88.649000000000001</v>
       </c>
       <c r="D89">
-        <v>76.781999999999897</v>
+        <v>88.781999999999996</v>
       </c>
       <c r="E89">
-        <v>76.981999999999999</v>
+        <v>89.048999999999992</v>
       </c>
       <c r="F89">
-        <v>-1.2</v>
+        <v>1</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1</v>
       </c>
       <c r="B90">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C90">
-        <v>77.182000000000002</v>
+        <v>89.048999999999992</v>
       </c>
       <c r="D90">
-        <v>77.581999999999994</v>
+        <v>89.181999999999988</v>
       </c>
       <c r="E90">
-        <v>77.981999999999999</v>
+        <v>89.448999999999998</v>
       </c>
       <c r="F90">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -17405,21 +17474,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B91">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C91">
-        <v>77.182000000000002</v>
+        <v>89.448999999999998</v>
       </c>
       <c r="D91">
-        <v>77.981999999999999</v>
+        <v>89.581999999999994</v>
       </c>
       <c r="E91">
-        <v>78.382000000000005</v>
+        <v>89.84899999999999</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -17428,478 +17497,514 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1</v>
       </c>
       <c r="B92">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C92">
-        <v>77.182000000000002</v>
+        <v>89.84899999999999</v>
       </c>
       <c r="D92">
-        <v>78.382000000000005</v>
+        <v>89.981999999999999</v>
       </c>
       <c r="E92">
-        <v>78.781999999999996</v>
+        <v>90.248999999999995</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B93">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C93">
-        <v>77.182000000000002</v>
+        <v>106.38200000000001</v>
       </c>
       <c r="D93">
-        <v>78.781999999999996</v>
+        <v>106.78200000000001</v>
       </c>
       <c r="E93">
-        <v>79.081999999999994</v>
+        <v>107.182</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>-1</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="K93">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L93">
+        <v>0.5</v>
+      </c>
+      <c r="M93">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B94">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C94">
-        <v>77.182000000000002</v>
+        <v>107.182</v>
       </c>
       <c r="D94">
-        <v>79.081999999999994</v>
+        <v>107.58199999999999</v>
       </c>
       <c r="E94">
-        <v>79.382000000000005</v>
+        <v>107.982</v>
       </c>
       <c r="F94">
-        <v>-1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="K94">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L94">
+        <v>0.5</v>
+      </c>
+      <c r="M94">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B95">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C95">
-        <v>77.182000000000002</v>
+        <v>107.982</v>
       </c>
       <c r="D95">
-        <v>77.581999999999994</v>
+        <v>108.38200000000001</v>
       </c>
       <c r="E95">
-        <v>77.981999999999999</v>
+        <v>108.78200000000001</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="K95">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L95">
+        <v>0.5</v>
+      </c>
+      <c r="M95">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B96">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C96">
-        <v>77.182000000000002</v>
+        <v>108.78200000000001</v>
       </c>
       <c r="D96">
-        <v>77.981999999999999</v>
+        <v>109.182</v>
       </c>
       <c r="E96">
-        <v>78.382000000000005</v>
+        <v>109.58199999999999</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
-      <c r="H96">
-        <v>-1</v>
-      </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
       <c r="J96" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="K96">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L96">
+        <v>0.5</v>
+      </c>
+      <c r="M96">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B97">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C97">
-        <v>77.182000000000002</v>
+        <v>109.58200000000001</v>
       </c>
       <c r="D97">
-        <v>78.382000000000005</v>
+        <v>109.982</v>
       </c>
       <c r="E97">
-        <v>78.781999999999996</v>
+        <v>110.38200000000001</v>
       </c>
       <c r="F97">
-        <v>-1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="G97">
         <v>1</v>
       </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
       <c r="J97" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="K97">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L97">
+        <v>0.5</v>
+      </c>
+      <c r="M97">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B98">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C98">
-        <v>77.182000000000002</v>
+        <v>110.38200000000001</v>
       </c>
       <c r="D98">
-        <v>78.781999999999996</v>
+        <v>110.78200000000001</v>
       </c>
       <c r="E98">
-        <v>79.081999999999994</v>
+        <v>111.182</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="K98">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L98">
+        <v>0.5</v>
+      </c>
+      <c r="M98">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B99">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C99">
-        <v>77.182000000000002</v>
+        <v>111.18200000000002</v>
       </c>
       <c r="D99">
-        <v>79.081999999999994</v>
+        <v>111.58200000000001</v>
       </c>
       <c r="E99">
-        <v>79.382000000000005</v>
+        <v>111.982</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="K99">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L99">
+        <v>0.5</v>
+      </c>
+      <c r="M99">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B100">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C100">
-        <v>87.049000000000007</v>
+        <v>111.982</v>
       </c>
       <c r="D100">
-        <v>87.182000000000002</v>
+        <v>112.38200000000001</v>
       </c>
       <c r="E100">
-        <v>87.448999999999998</v>
+        <v>112.78200000000001</v>
       </c>
       <c r="F100">
-        <v>-1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="K100">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L100">
+        <v>0.5</v>
+      </c>
+      <c r="M100">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B101">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C101">
-        <v>87.448999999999998</v>
+        <v>112.78200000000001</v>
       </c>
       <c r="D101">
-        <v>87.581999999999994</v>
+        <v>113.18200000000002</v>
       </c>
       <c r="E101">
-        <v>87.849000000000004</v>
+        <v>113.58200000000001</v>
       </c>
       <c r="F101">
-        <v>-1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
       <c r="J101" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="K101">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L101">
+        <v>0.5</v>
+      </c>
+      <c r="M101">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B102">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C102">
-        <v>87.849000000000004</v>
+        <v>113.58200000000001</v>
       </c>
       <c r="D102">
-        <v>87.981999999999999</v>
+        <v>113.982</v>
       </c>
       <c r="E102">
-        <v>88.248999999999995</v>
+        <v>114.38200000000001</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>1</v>
-      </c>
-      <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="K102">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L102">
+        <v>0.5</v>
+      </c>
+      <c r="M102">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B103">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C103">
-        <v>88.248999999999995</v>
+        <v>114.38200000000001</v>
       </c>
       <c r="D103">
-        <v>88.382000000000005</v>
+        <v>114.78200000000001</v>
       </c>
       <c r="E103">
-        <v>88.649000000000001</v>
+        <v>115.18200000000002</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="G103">
         <v>1</v>
       </c>
-      <c r="H103">
-        <v>1</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
       <c r="J103" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="K103">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L103">
+        <v>0.5</v>
+      </c>
+      <c r="M103">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B104">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C104">
-        <v>88.649000000000001</v>
+        <v>115.18200000000002</v>
       </c>
       <c r="D104">
-        <v>88.781999999999996</v>
+        <v>115.58200000000001</v>
       </c>
       <c r="E104">
-        <v>89.048999999999992</v>
+        <v>115.982</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
       <c r="J104" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="K104">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L104">
+        <v>0.5</v>
+      </c>
+      <c r="M104">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B105">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C105">
-        <v>89.048999999999992</v>
+        <v>115.982</v>
       </c>
       <c r="D105">
-        <v>89.181999999999988</v>
+        <v>116.38200000000001</v>
       </c>
       <c r="E105">
-        <v>89.448999999999998</v>
+        <v>116.78200000000001</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B106">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C106">
-        <v>89.448999999999998</v>
+        <v>116.38200000000001</v>
       </c>
       <c r="D106">
-        <v>89.581999999999994</v>
+        <v>116.78200000000001</v>
       </c>
       <c r="E106">
-        <v>89.84899999999999</v>
+        <v>117.182</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -17908,7 +18013,7 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -17917,123 +18022,126 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B107">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C107">
-        <v>89.84899999999999</v>
+        <v>116.78200000000001</v>
       </c>
       <c r="D107">
-        <v>89.981999999999999</v>
+        <v>117.182</v>
       </c>
       <c r="E107">
-        <v>90.248999999999995</v>
+        <v>117.58199999999999</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H107">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>3</v>
       </c>
       <c r="B108">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C108">
-        <v>106.38200000000001</v>
+        <v>117.182</v>
       </c>
       <c r="D108">
-        <v>106.78200000000001</v>
+        <v>117.58199999999999</v>
       </c>
       <c r="E108">
-        <v>106.982</v>
+        <v>118.182</v>
       </c>
       <c r="F108">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>1</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="J108" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="K108">
+        <v>0.8</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>3</v>
       </c>
       <c r="B109">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C109">
-        <v>106.38200000000001</v>
+        <v>117.182</v>
       </c>
       <c r="D109">
-        <v>106.982</v>
+        <v>118.182</v>
       </c>
       <c r="E109">
-        <v>107.182</v>
+        <v>118.33199999999999</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H109">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J109" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>3</v>
       </c>
       <c r="B110">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C110">
-        <v>107.182</v>
+        <v>117.182</v>
       </c>
       <c r="D110">
-        <v>107.58199999999999</v>
+        <v>118.33199999999999</v>
       </c>
       <c r="E110">
-        <v>107.78200000000001</v>
+        <v>118.482</v>
       </c>
       <c r="F110">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -18042,24 +18150,24 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>3</v>
       </c>
       <c r="B111">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C111">
-        <v>107.182</v>
+        <v>117.182</v>
       </c>
       <c r="D111">
-        <v>107.78200000000001</v>
+        <v>118.482</v>
       </c>
       <c r="E111">
-        <v>107.982</v>
+        <v>118.63200000000001</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -18068,237 +18176,237 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J111" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>3</v>
       </c>
       <c r="B112">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C112">
-        <v>107.982</v>
+        <v>117.182</v>
       </c>
       <c r="D112">
-        <v>108.38200000000001</v>
+        <v>118.63200000000001</v>
       </c>
       <c r="E112">
-        <v>108.58199999999999</v>
+        <v>118.782</v>
       </c>
       <c r="F112">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="J112" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B113">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C113">
-        <v>107.982</v>
+        <v>120.18199999999999</v>
       </c>
       <c r="D113">
-        <v>108.58199999999999</v>
+        <v>120.58199999999999</v>
       </c>
       <c r="E113">
-        <v>108.78200000000001</v>
+        <v>120.782</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
         <v>-1.2</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B114">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C114">
-        <v>108.78200000000001</v>
+        <v>120.78200000000001</v>
       </c>
       <c r="D114">
-        <v>109.182</v>
+        <v>121.182</v>
       </c>
       <c r="E114">
-        <v>109.38200000000001</v>
+        <v>121.38200000000001</v>
       </c>
       <c r="F114">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="G114">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B115">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C115">
-        <v>108.78200000000001</v>
+        <v>120.982</v>
       </c>
       <c r="D115">
-        <v>109.38200000000001</v>
+        <v>121.38200000000001</v>
       </c>
       <c r="E115">
-        <v>109.58199999999999</v>
+        <v>121.58199999999999</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>-1.6</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>1.2</v>
+        <v>-0.9</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B116">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C116">
-        <v>109.58200000000001</v>
+        <v>121.782</v>
       </c>
       <c r="D116">
-        <v>109.982</v>
+        <v>122.18199999999999</v>
       </c>
       <c r="E116">
-        <v>110.182</v>
+        <v>122.38200000000001</v>
       </c>
       <c r="F116">
-        <v>-1.2</v>
+        <v>0.5</v>
       </c>
       <c r="G116">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B117">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C117">
-        <v>109.58200000000001</v>
+        <v>122.38200000000001</v>
       </c>
       <c r="D117">
-        <v>110.182</v>
+        <v>122.78200000000001</v>
       </c>
       <c r="E117">
-        <v>110.38200000000001</v>
+        <v>122.982</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>1.2</v>
+        <v>-0.7</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B118">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C118">
-        <v>110.38200000000001</v>
+        <v>122.58199999999999</v>
       </c>
       <c r="D118">
-        <v>110.78200000000001</v>
+        <v>122.982</v>
       </c>
       <c r="E118">
-        <v>110.982</v>
+        <v>123.18199999999999</v>
       </c>
       <c r="F118">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="G118">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
@@ -18306,95 +18414,95 @@
         <v>3</v>
       </c>
       <c r="B119">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C119">
-        <v>110.38200000000001</v>
+        <v>123.58199999999999</v>
       </c>
       <c r="D119">
-        <v>110.982</v>
+        <v>123.982</v>
       </c>
       <c r="E119">
-        <v>111.182</v>
+        <v>124.1820000000001</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119">
-        <v>-1.2</v>
+        <v>-0.3</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B120">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C120">
-        <v>111.18200000000002</v>
+        <v>123.982</v>
       </c>
       <c r="D120">
-        <v>111.58200000000001</v>
+        <v>124.38200000000009</v>
       </c>
       <c r="E120">
-        <v>111.78200000000001</v>
+        <v>124.58200000000011</v>
       </c>
       <c r="F120">
-        <v>-1.2</v>
+        <v>1</v>
       </c>
       <c r="G120">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B121">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C121">
-        <v>111.18200000000002</v>
+        <v>124.38200000000009</v>
       </c>
       <c r="D121">
-        <v>111.78200000000001</v>
+        <v>124.7820000000001</v>
       </c>
       <c r="E121">
-        <v>111.982</v>
+        <v>124.9820000000001</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>1.2</v>
+        <v>-0.3</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
@@ -18402,31 +18510,31 @@
         <v>3</v>
       </c>
       <c r="B122">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C122">
-        <v>111.982</v>
+        <v>124.7820000000001</v>
       </c>
       <c r="D122">
-        <v>112.38200000000001</v>
+        <v>125.1820000000001</v>
       </c>
       <c r="E122">
-        <v>112.58200000000001</v>
+        <v>125.38200000000009</v>
       </c>
       <c r="F122">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
@@ -18434,31 +18542,31 @@
         <v>3</v>
       </c>
       <c r="B123">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C123">
-        <v>111.982</v>
+        <v>125.58200000000011</v>
       </c>
       <c r="D123">
-        <v>112.58200000000001</v>
+        <v>125.9820000000001</v>
       </c>
       <c r="E123">
-        <v>112.78200000000001</v>
+        <v>126.1820000000001</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
       <c r="H123">
-        <v>-1.2</v>
+        <v>-0.3</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
@@ -18466,281 +18574,281 @@
         <v>3</v>
       </c>
       <c r="B124">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C124">
-        <v>112.78200000000001</v>
+        <v>125.7820000000001</v>
       </c>
       <c r="D124">
-        <v>113.18200000000002</v>
+        <v>126.1820000000001</v>
       </c>
       <c r="E124">
-        <v>113.38200000000001</v>
+        <v>126.38200000000009</v>
       </c>
       <c r="F124">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B125">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C125">
-        <v>112.78200000000001</v>
+        <v>126.68199999999999</v>
       </c>
       <c r="D125">
-        <v>113.38200000000001</v>
+        <v>126.982</v>
       </c>
       <c r="E125">
-        <v>113.58200000000001</v>
+        <v>127.18199999999999</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>-1.2</v>
+        <v>1.2</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B126">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C126">
-        <v>113.58200000000001</v>
+        <v>127.18199999999999</v>
       </c>
       <c r="D126">
-        <v>113.982</v>
+        <v>127.58199999999999</v>
       </c>
       <c r="E126">
-        <v>114.18200000000002</v>
+        <v>127.782</v>
       </c>
       <c r="F126">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="G126">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B127">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C127">
-        <v>113.58200000000001</v>
+        <v>127.38200000000001</v>
       </c>
       <c r="D127">
-        <v>114.18200000000002</v>
+        <v>127.782</v>
       </c>
       <c r="E127">
-        <v>114.38200000000001</v>
+        <v>127.982</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B128">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C128">
-        <v>114.38200000000001</v>
+        <v>128.18199999999999</v>
       </c>
       <c r="D128">
-        <v>114.78200000000001</v>
+        <v>128.58199999999999</v>
       </c>
       <c r="E128">
-        <v>114.982</v>
+        <v>128.78199999999998</v>
       </c>
       <c r="F128">
+        <v>-0.5</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
         <v>-1.2</v>
       </c>
-      <c r="G128">
-        <v>1</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B129">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C129">
-        <v>114.38200000000001</v>
+        <v>128.78200000000001</v>
       </c>
       <c r="D129">
-        <v>114.982</v>
+        <v>129.18200000000002</v>
       </c>
       <c r="E129">
-        <v>115.18200000000002</v>
+        <v>129.38200000000001</v>
       </c>
       <c r="F129">
         <v>0</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B130">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C130">
-        <v>115.18200000000002</v>
+        <v>128.982</v>
       </c>
       <c r="D130">
-        <v>115.58200000000001</v>
+        <v>129.38200000000001</v>
       </c>
       <c r="E130">
-        <v>115.78200000000001</v>
+        <v>129.58199999999999</v>
       </c>
       <c r="F130">
-        <v>1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="G130">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B131">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C131">
-        <v>115.18200000000002</v>
+        <v>131.58199999999999</v>
       </c>
       <c r="D131">
-        <v>115.78200000000001</v>
+        <v>131.982</v>
       </c>
       <c r="E131">
-        <v>115.982</v>
+        <v>132.18199999999999</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>-1.2</v>
+        <v>-0.6</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B132">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C132">
-        <v>115.982</v>
+        <v>131.982</v>
       </c>
       <c r="D132">
-        <v>116.38200000000001</v>
+        <v>132.38200000000001</v>
       </c>
       <c r="E132">
-        <v>116.78200000000001</v>
+        <v>132.58199999999999</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G132">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>-0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -18751,28 +18859,28 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B133">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C133">
-        <v>116.38200000000001</v>
+        <v>132.38200000000001</v>
       </c>
       <c r="D133">
-        <v>116.78200000000001</v>
+        <v>132.78199999999998</v>
       </c>
       <c r="E133">
-        <v>117.182</v>
+        <v>132.982</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G133">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -18783,25 +18891,25 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B134">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C134">
-        <v>116.78200000000001</v>
+        <v>132.78199999999998</v>
       </c>
       <c r="D134">
-        <v>117.182</v>
+        <v>133.18200000000002</v>
       </c>
       <c r="E134">
-        <v>117.58199999999999</v>
+        <v>133.38200000000001</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -18815,159 +18923,159 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B135">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="C135">
-        <v>117.182</v>
+        <v>134.58200000000011</v>
       </c>
       <c r="D135">
-        <v>117.58199999999999</v>
+        <v>135.1820000000001</v>
       </c>
       <c r="E135">
-        <v>117.732</v>
+        <v>135.38200000000009</v>
       </c>
       <c r="F135">
         <v>0</v>
       </c>
       <c r="G135">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H135">
         <v>-0.8</v>
       </c>
       <c r="I135">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B136">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C136">
-        <v>117.182</v>
+        <v>134.982</v>
       </c>
       <c r="D136">
-        <v>117.732</v>
+        <v>135.58200000000011</v>
       </c>
       <c r="E136">
-        <v>117.88200000000001</v>
+        <v>135.7820000000001</v>
       </c>
       <c r="F136">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B137">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C137">
-        <v>117.182</v>
+        <v>136.58200000000011</v>
       </c>
       <c r="D137">
-        <v>117.88200000000001</v>
+        <v>136.7820000000001</v>
       </c>
       <c r="E137">
-        <v>118.032</v>
+        <v>136.98200000000008</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
         <v>0.8</v>
       </c>
       <c r="I137">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B138">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C138">
-        <v>117.182</v>
+        <v>136.98200000000008</v>
       </c>
       <c r="D138">
-        <v>118.032</v>
+        <v>137.1820000000001</v>
       </c>
       <c r="E138">
-        <v>118.182</v>
+        <v>137.38200000000009</v>
       </c>
       <c r="F138">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G138">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="I138">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B139">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="C139">
-        <v>117.182</v>
+        <v>137.38200000000009</v>
       </c>
       <c r="D139">
-        <v>118.182</v>
+        <v>137.58200000000011</v>
       </c>
       <c r="E139">
-        <v>118.33199999999999</v>
+        <v>137.7820000000001</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="G139">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H139">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="I139">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
         <v>25</v>
@@ -18975,28 +19083,28 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B140">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C140">
-        <v>117.182</v>
+        <v>137.7820000000001</v>
       </c>
       <c r="D140">
-        <v>118.33199999999999</v>
+        <v>137.98200000000008</v>
       </c>
       <c r="E140">
-        <v>118.482</v>
+        <v>138.1820000000001</v>
       </c>
       <c r="F140">
-        <v>-0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="G140">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -19007,31 +19115,31 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B141">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="C141">
-        <v>117.182</v>
+        <v>138.1820000000001</v>
       </c>
       <c r="D141">
-        <v>118.482</v>
+        <v>138.38200000000009</v>
       </c>
       <c r="E141">
-        <v>118.63200000000001</v>
+        <v>138.58200000000011</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="I141">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>25</v>
@@ -19042,28 +19150,28 @@
         <v>3</v>
       </c>
       <c r="B142">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="C142">
-        <v>117.182</v>
+        <v>139.18200000000002</v>
       </c>
       <c r="D142">
-        <v>118.63200000000001</v>
+        <v>139.18200000000002</v>
       </c>
       <c r="E142">
-        <v>118.782</v>
+        <v>139.38200000000001</v>
       </c>
       <c r="F142">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G142">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I142">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
         <v>25</v>
@@ -19071,31 +19179,31 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B143">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C143">
-        <v>120.18199999999999</v>
+        <v>139.58199999999999</v>
       </c>
       <c r="D143">
-        <v>120.58199999999999</v>
+        <v>139.58199999999999</v>
       </c>
       <c r="E143">
-        <v>120.782</v>
+        <v>139.78199999999998</v>
       </c>
       <c r="F143">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>-1.2</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
         <v>25</v>
@@ -19103,380 +19211,395 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B144">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C144">
-        <v>120.78200000000001</v>
+        <v>139.982</v>
       </c>
       <c r="D144">
-        <v>121.182</v>
+        <v>139.982</v>
       </c>
       <c r="E144">
-        <v>121.38200000000001</v>
+        <v>140.18200000000002</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B145">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C145">
-        <v>120.982</v>
+        <v>140.78199999999998</v>
       </c>
       <c r="D145">
-        <v>121.38200000000001</v>
+        <v>140.78199999999998</v>
       </c>
       <c r="E145">
-        <v>121.58199999999999</v>
+        <v>140.982</v>
       </c>
       <c r="F145">
-        <v>-1.6</v>
+        <v>-1</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>-0.9</v>
+        <v>-1.5</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B146">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C146">
-        <v>121.782</v>
+        <v>141.18200000000002</v>
       </c>
       <c r="D146">
-        <v>122.18199999999999</v>
+        <v>141.18200000000002</v>
       </c>
       <c r="E146">
-        <v>122.38200000000001</v>
+        <v>141.38200000000001</v>
       </c>
       <c r="F146">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B147">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C147">
-        <v>122.38200000000001</v>
+        <v>141.58199999999999</v>
       </c>
       <c r="D147">
-        <v>122.78200000000001</v>
+        <v>141.58199999999999</v>
       </c>
       <c r="E147">
-        <v>122.982</v>
+        <v>141.78199999999998</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1</v>
       </c>
       <c r="B148">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="C148">
-        <v>122.58199999999999</v>
+        <v>144.78199999999998</v>
       </c>
       <c r="D148">
-        <v>122.982</v>
+        <v>145.1819999999999</v>
       </c>
       <c r="E148">
-        <v>123.18199999999999</v>
+        <v>145.38200000000001</v>
       </c>
       <c r="F148">
-        <v>1.6</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="G148">
         <v>1</v>
       </c>
-      <c r="H148">
-        <v>0.9</v>
-      </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
       <c r="J148" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="K148">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L148">
+        <v>0.25</v>
+      </c>
+      <c r="M148">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B149">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C149">
-        <v>123.58199999999999</v>
+        <v>145.1819999999999</v>
       </c>
       <c r="D149">
-        <v>123.982</v>
+        <v>145.58199999999988</v>
       </c>
       <c r="E149">
-        <v>124.1820000000001</v>
+        <v>145.78199999999998</v>
       </c>
       <c r="F149">
-        <v>-1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G149">
-        <v>0</v>
-      </c>
-      <c r="H149">
-        <v>-0.3</v>
-      </c>
-      <c r="I149">
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="K149">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L149">
+        <v>0.25</v>
+      </c>
+      <c r="M149">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1</v>
       </c>
       <c r="B150">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="C150">
-        <v>123.982</v>
+        <v>145.58199999999999</v>
       </c>
       <c r="D150">
-        <v>124.38200000000009</v>
+        <v>145.982</v>
       </c>
       <c r="E150">
-        <v>124.58200000000011</v>
+        <v>146.18199999999999</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="G150">
         <v>1</v>
       </c>
-      <c r="H150">
-        <v>0.3</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
       <c r="J150" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="K150">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L150">
+        <v>0.25</v>
+      </c>
+      <c r="M150">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1</v>
       </c>
       <c r="B151">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="C151">
-        <v>124.38200000000009</v>
+        <v>145.982</v>
       </c>
       <c r="D151">
-        <v>124.7820000000001</v>
+        <v>146.38200000000001</v>
       </c>
       <c r="E151">
-        <v>124.9820000000001</v>
+        <v>146.58199999999999</v>
       </c>
       <c r="F151">
-        <v>-1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G151">
         <v>1</v>
       </c>
-      <c r="H151">
-        <v>-0.3</v>
-      </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
       <c r="J151" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="K151">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L151">
+        <v>0.25</v>
+      </c>
+      <c r="M151">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B152">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="C152">
-        <v>124.7820000000001</v>
+        <v>146.38200000000001</v>
       </c>
       <c r="D152">
-        <v>125.1820000000001</v>
+        <v>146.78200000000001</v>
       </c>
       <c r="E152">
-        <v>125.38200000000009</v>
+        <v>146.982</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="G152">
-        <v>0</v>
-      </c>
-      <c r="H152">
-        <v>0.3</v>
-      </c>
-      <c r="I152">
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="K152">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L152">
+        <v>0.25</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B153">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="C153">
-        <v>125.58200000000011</v>
+        <v>146.78200000000001</v>
       </c>
       <c r="D153">
-        <v>125.9820000000001</v>
+        <v>147.18199999999999</v>
       </c>
       <c r="E153">
-        <v>126.1820000000001</v>
+        <v>147.38200000000001</v>
       </c>
       <c r="F153">
-        <v>-1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B154">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="C154">
-        <v>125.7820000000001</v>
+        <v>147.18199999999999</v>
       </c>
       <c r="D154">
-        <v>126.1820000000001</v>
+        <v>147.58199999999999</v>
       </c>
       <c r="E154">
-        <v>126.38200000000009</v>
+        <v>147.78200000000001</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1</v>
       </c>
       <c r="B155">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="C155">
-        <v>126.68199999999999</v>
+        <v>151.982</v>
       </c>
       <c r="D155">
-        <v>126.982</v>
+        <v>152.38200000000001</v>
       </c>
       <c r="E155">
-        <v>127.18199999999999</v>
+        <v>152.58199999999999</v>
       </c>
       <c r="F155">
+        <v>-0.2</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
         <v>0.5</v>
-      </c>
-      <c r="G155">
-        <v>1</v>
-      </c>
-      <c r="H155">
-        <v>1.2</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -19485,62 +19608,62 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B156">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="C156">
-        <v>127.18199999999999</v>
+        <v>152.18199999999999</v>
       </c>
       <c r="D156">
-        <v>127.58199999999999</v>
+        <v>152.58199999999999</v>
       </c>
       <c r="E156">
-        <v>127.782</v>
+        <v>152.78200000000001</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>-1.6</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>-0.7</v>
+        <v>-0.9</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1</v>
       </c>
       <c r="B157">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C157">
-        <v>127.38200000000001</v>
+        <v>155.18199999999999</v>
       </c>
       <c r="D157">
-        <v>127.782</v>
+        <v>155.58199999999999</v>
       </c>
       <c r="E157">
-        <v>127.982</v>
+        <v>155.78200000000001</v>
       </c>
       <c r="F157">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="G157">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>0.9</v>
+        <v>-0.5</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -19549,94 +19672,94 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B158">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="C158">
-        <v>128.18199999999999</v>
+        <v>155.38199999999998</v>
       </c>
       <c r="D158">
-        <v>128.58199999999999</v>
+        <v>155.78199999999998</v>
       </c>
       <c r="E158">
-        <v>128.78199999999998</v>
+        <v>155.982</v>
       </c>
       <c r="F158">
-        <v>-0.5</v>
+        <v>1.6</v>
       </c>
       <c r="G158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>-1.2</v>
+        <v>0.9</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B159">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="C159">
-        <v>128.78200000000001</v>
+        <v>156.78200000000001</v>
       </c>
       <c r="D159">
-        <v>129.18200000000002</v>
+        <v>157.18199999999999</v>
       </c>
       <c r="E159">
-        <v>129.38200000000001</v>
+        <v>157.38200000000001</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>-1.6</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1</v>
       </c>
       <c r="B160">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="C160">
-        <v>128.982</v>
+        <v>156.982</v>
       </c>
       <c r="D160">
-        <v>129.38200000000001</v>
+        <v>157.38200000000001</v>
       </c>
       <c r="E160">
-        <v>129.58199999999999</v>
+        <v>157.58199999999999</v>
       </c>
       <c r="F160">
-        <v>-1.6</v>
+        <v>-0.8</v>
       </c>
       <c r="G160">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -19647,31 +19770,31 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B161">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="C161">
-        <v>131.58199999999999</v>
+        <v>158.38200000000001</v>
       </c>
       <c r="D161">
-        <v>131.982</v>
+        <v>158.78199999999998</v>
       </c>
       <c r="E161">
-        <v>132.18199999999999</v>
+        <v>158.982</v>
       </c>
       <c r="F161">
-        <v>-1.5</v>
+        <v>1.6</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>-0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
         <v>25</v>
@@ -19682,990 +19805,30 @@
         <v>1</v>
       </c>
       <c r="B162">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="C162">
-        <v>131.982</v>
+        <v>158.58199999999999</v>
       </c>
       <c r="D162">
-        <v>132.38200000000001</v>
+        <v>158.982</v>
       </c>
       <c r="E162">
-        <v>132.58199999999999</v>
+        <v>159.18199999999999</v>
       </c>
       <c r="F162">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="G162">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I162">
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A163">
-        <v>1</v>
-      </c>
-      <c r="B163">
-        <v>116</v>
-      </c>
-      <c r="C163">
-        <v>132.38200000000001</v>
-      </c>
-      <c r="D163">
-        <v>132.78199999999998</v>
-      </c>
-      <c r="E163">
-        <v>132.982</v>
-      </c>
-      <c r="F163">
-        <v>-1</v>
-      </c>
-      <c r="G163">
-        <v>1</v>
-      </c>
-      <c r="H163">
-        <v>0</v>
-      </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
-      <c r="J163" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A164">
-        <v>1</v>
-      </c>
-      <c r="B164">
-        <v>117</v>
-      </c>
-      <c r="C164">
-        <v>132.78199999999998</v>
-      </c>
-      <c r="D164">
-        <v>133.18200000000002</v>
-      </c>
-      <c r="E164">
-        <v>133.38200000000001</v>
-      </c>
-      <c r="F164">
-        <v>1</v>
-      </c>
-      <c r="G164">
-        <v>1</v>
-      </c>
-      <c r="H164">
-        <v>0</v>
-      </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
-      <c r="J164" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <v>1</v>
-      </c>
-      <c r="B165">
-        <v>118</v>
-      </c>
-      <c r="C165">
-        <v>134.58200000000011</v>
-      </c>
-      <c r="D165">
-        <v>135.1820000000001</v>
-      </c>
-      <c r="E165">
-        <v>135.38200000000009</v>
-      </c>
-      <c r="F165">
-        <v>0</v>
-      </c>
-      <c r="G165">
-        <v>1</v>
-      </c>
-      <c r="H165">
-        <v>-0.8</v>
-      </c>
-      <c r="I165">
-        <v>0</v>
-      </c>
-      <c r="J165" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <v>1</v>
-      </c>
-      <c r="B166">
-        <v>119</v>
-      </c>
-      <c r="C166">
-        <v>134.982</v>
-      </c>
-      <c r="D166">
-        <v>135.58200000000011</v>
-      </c>
-      <c r="E166">
-        <v>135.7820000000001</v>
-      </c>
-      <c r="F166">
-        <v>0</v>
-      </c>
-      <c r="G166">
-        <v>1</v>
-      </c>
-      <c r="H166">
-        <v>0.8</v>
-      </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
-      <c r="J166" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A167">
-        <v>1</v>
-      </c>
-      <c r="B167">
-        <v>120</v>
-      </c>
-      <c r="C167">
-        <v>136.58200000000011</v>
-      </c>
-      <c r="D167">
-        <v>136.7820000000001</v>
-      </c>
-      <c r="E167">
-        <v>136.98200000000008</v>
-      </c>
-      <c r="F167">
-        <v>1.5</v>
-      </c>
-      <c r="G167">
-        <v>1</v>
-      </c>
-      <c r="H167">
-        <v>0.8</v>
-      </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
-      <c r="J167" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A168">
-        <v>1</v>
-      </c>
-      <c r="B168">
-        <v>121</v>
-      </c>
-      <c r="C168">
-        <v>136.98200000000008</v>
-      </c>
-      <c r="D168">
-        <v>137.1820000000001</v>
-      </c>
-      <c r="E168">
-        <v>137.38200000000009</v>
-      </c>
-      <c r="F168">
-        <v>0.5</v>
-      </c>
-      <c r="G168">
-        <v>1</v>
-      </c>
-      <c r="H168">
-        <v>-0.2</v>
-      </c>
-      <c r="I168">
-        <v>0</v>
-      </c>
-      <c r="J168" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A169">
-        <v>1</v>
-      </c>
-      <c r="B169">
-        <v>122</v>
-      </c>
-      <c r="C169">
-        <v>137.38200000000009</v>
-      </c>
-      <c r="D169">
-        <v>137.58200000000011</v>
-      </c>
-      <c r="E169">
-        <v>137.7820000000001</v>
-      </c>
-      <c r="F169">
-        <v>-0.5</v>
-      </c>
-      <c r="G169">
-        <v>1</v>
-      </c>
-      <c r="H169">
-        <v>-1.2</v>
-      </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-      <c r="J169" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A170">
-        <v>1</v>
-      </c>
-      <c r="B170">
-        <v>123</v>
-      </c>
-      <c r="C170">
-        <v>137.7820000000001</v>
-      </c>
-      <c r="D170">
-        <v>137.98200000000008</v>
-      </c>
-      <c r="E170">
-        <v>138.1820000000001</v>
-      </c>
-      <c r="F170">
-        <v>-0.5</v>
-      </c>
-      <c r="G170">
-        <v>1</v>
-      </c>
-      <c r="H170">
-        <v>0.2</v>
-      </c>
-      <c r="I170">
-        <v>0</v>
-      </c>
-      <c r="J170" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A171">
-        <v>1</v>
-      </c>
-      <c r="B171">
-        <v>124</v>
-      </c>
-      <c r="C171">
-        <v>138.1820000000001</v>
-      </c>
-      <c r="D171">
-        <v>138.38200000000009</v>
-      </c>
-      <c r="E171">
-        <v>138.58200000000011</v>
-      </c>
-      <c r="F171">
-        <v>0.5</v>
-      </c>
-      <c r="G171">
-        <v>1</v>
-      </c>
-      <c r="H171">
-        <v>1.2</v>
-      </c>
-      <c r="I171">
-        <v>0</v>
-      </c>
-      <c r="J171" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A172">
-        <v>3</v>
-      </c>
-      <c r="B172">
-        <v>125</v>
-      </c>
-      <c r="C172">
-        <v>139.18200000000002</v>
-      </c>
-      <c r="D172">
-        <v>139.18200000000002</v>
-      </c>
-      <c r="E172">
-        <v>139.38200000000001</v>
-      </c>
-      <c r="F172">
-        <v>1</v>
-      </c>
-      <c r="G172">
-        <v>0</v>
-      </c>
-      <c r="H172">
-        <v>1.5</v>
-      </c>
-      <c r="I172">
-        <v>1</v>
-      </c>
-      <c r="J172" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A173">
-        <v>3</v>
-      </c>
-      <c r="B173">
-        <v>126</v>
-      </c>
-      <c r="C173">
-        <v>139.58199999999999</v>
-      </c>
-      <c r="D173">
-        <v>139.58199999999999</v>
-      </c>
-      <c r="E173">
-        <v>139.78199999999998</v>
-      </c>
-      <c r="F173">
-        <v>1</v>
-      </c>
-      <c r="G173">
-        <v>0</v>
-      </c>
-      <c r="H173">
-        <v>1</v>
-      </c>
-      <c r="I173">
-        <v>1</v>
-      </c>
-      <c r="J173" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A174">
-        <v>3</v>
-      </c>
-      <c r="B174">
-        <v>127</v>
-      </c>
-      <c r="C174">
-        <v>139.982</v>
-      </c>
-      <c r="D174">
-        <v>139.982</v>
-      </c>
-      <c r="E174">
-        <v>140.18200000000002</v>
-      </c>
-      <c r="F174">
-        <v>1</v>
-      </c>
-      <c r="G174">
-        <v>0</v>
-      </c>
-      <c r="H174">
-        <v>0.5</v>
-      </c>
-      <c r="I174">
-        <v>1</v>
-      </c>
-      <c r="J174" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A175">
-        <v>3</v>
-      </c>
-      <c r="B175">
-        <v>128</v>
-      </c>
-      <c r="C175">
-        <v>140.78199999999998</v>
-      </c>
-      <c r="D175">
-        <v>140.78199999999998</v>
-      </c>
-      <c r="E175">
-        <v>140.982</v>
-      </c>
-      <c r="F175">
-        <v>-1</v>
-      </c>
-      <c r="G175">
-        <v>0</v>
-      </c>
-      <c r="H175">
-        <v>-1.5</v>
-      </c>
-      <c r="I175">
-        <v>1</v>
-      </c>
-      <c r="J175" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A176">
-        <v>3</v>
-      </c>
-      <c r="B176">
-        <v>129</v>
-      </c>
-      <c r="C176">
-        <v>141.18200000000002</v>
-      </c>
-      <c r="D176">
-        <v>141.18200000000002</v>
-      </c>
-      <c r="E176">
-        <v>141.38200000000001</v>
-      </c>
-      <c r="F176">
-        <v>-1</v>
-      </c>
-      <c r="G176">
-        <v>0</v>
-      </c>
-      <c r="H176">
-        <v>-1</v>
-      </c>
-      <c r="I176">
-        <v>1</v>
-      </c>
-      <c r="J176" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A177">
-        <v>3</v>
-      </c>
-      <c r="B177">
-        <v>130</v>
-      </c>
-      <c r="C177">
-        <v>141.58199999999999</v>
-      </c>
-      <c r="D177">
-        <v>141.58199999999999</v>
-      </c>
-      <c r="E177">
-        <v>141.78199999999998</v>
-      </c>
-      <c r="F177">
-        <v>-1</v>
-      </c>
-      <c r="G177">
-        <v>0</v>
-      </c>
-      <c r="H177">
-        <v>-0.5</v>
-      </c>
-      <c r="I177">
-        <v>1</v>
-      </c>
-      <c r="J177" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A178">
-        <v>1</v>
-      </c>
-      <c r="B178">
-        <v>131</v>
-      </c>
-      <c r="C178">
-        <v>144.78199999999998</v>
-      </c>
-      <c r="D178">
-        <v>145.1819999999999</v>
-      </c>
-      <c r="E178">
-        <v>145.38200000000001</v>
-      </c>
-      <c r="F178">
-        <v>-1.2</v>
-      </c>
-      <c r="G178">
-        <v>1</v>
-      </c>
-      <c r="H178">
-        <v>0</v>
-      </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-      <c r="J178" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>1</v>
-      </c>
-      <c r="B179">
-        <v>132</v>
-      </c>
-      <c r="C179">
-        <v>145.1819999999999</v>
-      </c>
-      <c r="D179">
-        <v>145.58199999999988</v>
-      </c>
-      <c r="E179">
-        <v>145.78199999999998</v>
-      </c>
-      <c r="F179">
-        <v>1.2</v>
-      </c>
-      <c r="G179">
-        <v>1</v>
-      </c>
-      <c r="H179">
-        <v>0</v>
-      </c>
-      <c r="I179">
-        <v>0</v>
-      </c>
-      <c r="J179" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A180">
-        <v>1</v>
-      </c>
-      <c r="B180">
-        <v>133</v>
-      </c>
-      <c r="C180">
-        <v>145.58199999999999</v>
-      </c>
-      <c r="D180">
-        <v>145.982</v>
-      </c>
-      <c r="E180">
-        <v>146.18199999999999</v>
-      </c>
-      <c r="F180">
-        <v>-1.2</v>
-      </c>
-      <c r="G180">
-        <v>1</v>
-      </c>
-      <c r="H180">
-        <v>0</v>
-      </c>
-      <c r="I180">
-        <v>0</v>
-      </c>
-      <c r="J180" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A181">
-        <v>1</v>
-      </c>
-      <c r="B181">
-        <v>134</v>
-      </c>
-      <c r="C181">
-        <v>145.982</v>
-      </c>
-      <c r="D181">
-        <v>146.38200000000001</v>
-      </c>
-      <c r="E181">
-        <v>146.58199999999999</v>
-      </c>
-      <c r="F181">
-        <v>1.2</v>
-      </c>
-      <c r="G181">
-        <v>1</v>
-      </c>
-      <c r="H181">
-        <v>0</v>
-      </c>
-      <c r="I181">
-        <v>0</v>
-      </c>
-      <c r="J181" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A182">
-        <v>1</v>
-      </c>
-      <c r="B182">
-        <v>135</v>
-      </c>
-      <c r="C182">
-        <v>146.38200000000001</v>
-      </c>
-      <c r="D182">
-        <v>146.78200000000001</v>
-      </c>
-      <c r="E182">
-        <v>146.982</v>
-      </c>
-      <c r="F182">
-        <v>-1.2</v>
-      </c>
-      <c r="G182">
-        <v>1</v>
-      </c>
-      <c r="H182">
-        <v>0</v>
-      </c>
-      <c r="I182">
-        <v>0</v>
-      </c>
-      <c r="J182" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A183">
-        <v>1</v>
-      </c>
-      <c r="B183">
-        <v>136</v>
-      </c>
-      <c r="C183">
-        <v>146.78200000000001</v>
-      </c>
-      <c r="D183">
-        <v>147.18199999999999</v>
-      </c>
-      <c r="E183">
-        <v>147.38200000000001</v>
-      </c>
-      <c r="F183">
-        <v>1.2</v>
-      </c>
-      <c r="G183">
-        <v>1</v>
-      </c>
-      <c r="H183">
-        <v>0</v>
-      </c>
-      <c r="I183">
-        <v>0</v>
-      </c>
-      <c r="J183" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A184">
-        <v>1</v>
-      </c>
-      <c r="B184">
-        <v>137</v>
-      </c>
-      <c r="C184">
-        <v>147.18199999999999</v>
-      </c>
-      <c r="D184">
-        <v>147.58199999999999</v>
-      </c>
-      <c r="E184">
-        <v>147.78200000000001</v>
-      </c>
-      <c r="F184">
-        <v>-1.2</v>
-      </c>
-      <c r="G184">
-        <v>1</v>
-      </c>
-      <c r="H184">
-        <v>0</v>
-      </c>
-      <c r="I184">
-        <v>0</v>
-      </c>
-      <c r="J184" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A185">
-        <v>1</v>
-      </c>
-      <c r="B185">
-        <v>138</v>
-      </c>
-      <c r="C185">
-        <v>151.982</v>
-      </c>
-      <c r="D185">
-        <v>152.38200000000001</v>
-      </c>
-      <c r="E185">
-        <v>152.58199999999999</v>
-      </c>
-      <c r="F185">
-        <v>-0.2</v>
-      </c>
-      <c r="G185">
-        <v>1</v>
-      </c>
-      <c r="H185">
-        <v>0.5</v>
-      </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
-      <c r="J185" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A186">
-        <v>3</v>
-      </c>
-      <c r="B186">
-        <v>139</v>
-      </c>
-      <c r="C186">
-        <v>152.18199999999999</v>
-      </c>
-      <c r="D186">
-        <v>152.58199999999999</v>
-      </c>
-      <c r="E186">
-        <v>152.78200000000001</v>
-      </c>
-      <c r="F186">
-        <v>-1.6</v>
-      </c>
-      <c r="G186">
-        <v>0</v>
-      </c>
-      <c r="H186">
-        <v>-0.9</v>
-      </c>
-      <c r="I186">
-        <v>1</v>
-      </c>
-      <c r="J186" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A187">
-        <v>1</v>
-      </c>
-      <c r="B187">
-        <v>140</v>
-      </c>
-      <c r="C187">
-        <v>155.18199999999999</v>
-      </c>
-      <c r="D187">
-        <v>155.58199999999999</v>
-      </c>
-      <c r="E187">
-        <v>155.78200000000001</v>
-      </c>
-      <c r="F187">
-        <v>0.2</v>
-      </c>
-      <c r="G187">
-        <v>1</v>
-      </c>
-      <c r="H187">
-        <v>-0.5</v>
-      </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
-      <c r="J187" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A188">
-        <v>3</v>
-      </c>
-      <c r="B188">
-        <v>141</v>
-      </c>
-      <c r="C188">
-        <v>155.38199999999998</v>
-      </c>
-      <c r="D188">
-        <v>155.78199999999998</v>
-      </c>
-      <c r="E188">
-        <v>155.982</v>
-      </c>
-      <c r="F188">
-        <v>1.6</v>
-      </c>
-      <c r="G188">
-        <v>0</v>
-      </c>
-      <c r="H188">
-        <v>0.9</v>
-      </c>
-      <c r="I188">
-        <v>1</v>
-      </c>
-      <c r="J188" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <v>3</v>
-      </c>
-      <c r="B189">
-        <v>142</v>
-      </c>
-      <c r="C189">
-        <v>156.78200000000001</v>
-      </c>
-      <c r="D189">
-        <v>157.18199999999999</v>
-      </c>
-      <c r="E189">
-        <v>157.38200000000001</v>
-      </c>
-      <c r="F189">
-        <v>-1.6</v>
-      </c>
-      <c r="G189">
-        <v>0</v>
-      </c>
-      <c r="H189">
-        <v>-0.8</v>
-      </c>
-      <c r="I189">
-        <v>1</v>
-      </c>
-      <c r="J189" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>1</v>
-      </c>
-      <c r="B190">
-        <v>143</v>
-      </c>
-      <c r="C190">
-        <v>156.982</v>
-      </c>
-      <c r="D190">
-        <v>157.38200000000001</v>
-      </c>
-      <c r="E190">
-        <v>157.58199999999999</v>
-      </c>
-      <c r="F190">
-        <v>-0.8</v>
-      </c>
-      <c r="G190">
-        <v>1</v>
-      </c>
-      <c r="H190">
-        <v>0</v>
-      </c>
-      <c r="I190">
-        <v>0</v>
-      </c>
-      <c r="J190" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A191">
-        <v>3</v>
-      </c>
-      <c r="B191">
-        <v>144</v>
-      </c>
-      <c r="C191">
-        <v>158.38200000000001</v>
-      </c>
-      <c r="D191">
-        <v>158.78199999999998</v>
-      </c>
-      <c r="E191">
-        <v>158.982</v>
-      </c>
-      <c r="F191">
-        <v>1.6</v>
-      </c>
-      <c r="G191">
-        <v>0</v>
-      </c>
-      <c r="H191">
-        <v>0.8</v>
-      </c>
-      <c r="I191">
-        <v>1</v>
-      </c>
-      <c r="J191" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A192">
-        <v>1</v>
-      </c>
-      <c r="B192">
-        <v>145</v>
-      </c>
-      <c r="C192">
-        <v>158.58199999999999</v>
-      </c>
-      <c r="D192">
-        <v>158.982</v>
-      </c>
-      <c r="E192">
-        <v>159.18199999999999</v>
-      </c>
-      <c r="F192">
-        <v>0.8</v>
-      </c>
-      <c r="G192">
-        <v>1</v>
-      </c>
-      <c r="H192">
-        <v>0</v>
-      </c>
-      <c r="I192">
-        <v>0</v>
-      </c>
-      <c r="J192" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Assets/StreamingAssets/Songs/宵々古今/Chart.xlsx
+++ b/Assets/StreamingAssets/Songs/宵々古今/Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Xenody-master\Assets\StreamingAssets\Songs\宵々古今\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F58CAE-2FA1-49A0-A5CB-4828D6FF1636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F4AD36-EBF9-418D-A380-D433F4E2587F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="3" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="speed" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="41">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,14 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lcolor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ucolor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#ff69b4</t>
   </si>
   <si>
@@ -177,6 +169,22 @@
   </si>
   <si>
     <t>CCWC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartLcolor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartUcolor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndLcolor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndUcolor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,15 +648,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A659A544-EEBF-4B0A-BA48-BF8FB53EE0AE}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -656,13 +664,19 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -670,10 +684,10 @@
         <v>999</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1706,8 +1720,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14572,13 +14586,13 @@
         <v>10</v>
       </c>
       <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
         <v>33</v>
-      </c>
-      <c r="L1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -15116,7 +15130,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K18">
         <v>1.1000000000000001</v>
@@ -15151,7 +15165,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K19">
         <v>1.1000000000000001</v>
@@ -15186,7 +15200,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K20">
         <v>1.1000000000000001</v>
@@ -15221,7 +15235,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K21">
         <v>1.1000000000000001</v>
@@ -15256,7 +15270,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K22">
         <v>1.1000000000000001</v>
@@ -15291,7 +15305,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K23">
         <v>1.1000000000000001</v>
@@ -15326,7 +15340,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K24">
         <v>1.1000000000000001</v>
@@ -15361,7 +15375,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K25">
         <v>1.1000000000000001</v>
@@ -15396,7 +15410,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K26">
         <v>1.1000000000000001</v>
@@ -15431,7 +15445,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K27">
         <v>1.1000000000000001</v>
@@ -15466,7 +15480,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K28">
         <v>1.1000000000000001</v>
@@ -15501,7 +15515,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K29">
         <v>1.1000000000000001</v>
@@ -15632,7 +15646,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K33">
         <v>0.8</v>
@@ -16915,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K73">
         <v>1.1000000000000001</v>
@@ -16950,7 +16964,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K74">
         <v>1.1000000000000001</v>
@@ -17561,7 +17575,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K93">
         <v>1.1000000000000001</v>
@@ -17596,7 +17610,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K94">
         <v>1.1000000000000001</v>
@@ -17631,7 +17645,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K95">
         <v>1.1000000000000001</v>
@@ -17666,7 +17680,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K96">
         <v>1.1000000000000001</v>
@@ -17701,7 +17715,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K97">
         <v>1.1000000000000001</v>
@@ -17736,7 +17750,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K98">
         <v>1.1000000000000001</v>
@@ -17771,7 +17785,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K99">
         <v>1.1000000000000001</v>
@@ -17806,7 +17820,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K100">
         <v>1.1000000000000001</v>
@@ -17841,7 +17855,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K101">
         <v>1.1000000000000001</v>
@@ -17876,7 +17890,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K102">
         <v>1.1000000000000001</v>
@@ -17911,7 +17925,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K103">
         <v>1.1000000000000001</v>
@@ -17946,7 +17960,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K104">
         <v>1.1000000000000001</v>
@@ -18077,7 +18091,7 @@
         <v>1.4</v>
       </c>
       <c r="J108" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K108">
         <v>0.8</v>
@@ -19360,7 +19374,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K148">
         <v>1.1000000000000001</v>
@@ -19395,7 +19409,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K149">
         <v>1.1000000000000001</v>
@@ -19430,7 +19444,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K150">
         <v>1.1000000000000001</v>
@@ -19465,7 +19479,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K151">
         <v>1.1000000000000001</v>
@@ -19500,7 +19514,7 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K152">
         <v>1.1000000000000001</v>
